--- a/formulas/salary-sellers.xlsx
+++ b/formulas/salary-sellers.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="23">
   <si>
     <t>Enero</t>
   </si>
@@ -75,6 +75,15 @@
   </si>
   <si>
     <t>New salary</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>February</t>
+  </si>
+  <si>
+    <t>March</t>
   </si>
 </sst>
 </file>
@@ -160,7 +169,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -200,6 +209,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -214,6 +226,328 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="120"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="20"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Salaries and Sales January</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.27528258967629049"/>
+          <c:y val="0.22471784776902887"/>
+          <c:w val="0.44415813648293961"/>
+          <c:h val="0.74026356080489941"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Solution!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Salary</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Solution!$A$3:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>López</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Merino</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Pastor</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Ramirez</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Zamora</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Solution!$B$3:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>_-"€"* #,##0_-;\-"€"* #,##0_-;_-"€"* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Solution!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Solution!$A$3:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>López</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Merino</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Pastor</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Ramirez</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Zamora</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Solution!$C$3:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>_-"€"* #,##0_-;\-"€"* #,##0_-;_-"€"* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5340</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3560</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2850</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6250</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="50"/>
+      </c:doughnutChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17501706036745407"/>
+          <c:y val="0.13414370078740157"/>
+          <c:w val="0.66107699037620293"/>
+          <c:h val="8.3717191601049873E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="accent5">
+            <a:shade val="51000"/>
+            <a:satMod val="130000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="80000">
+          <a:schemeClr val="accent5">
+            <a:shade val="93000"/>
+            <a:satMod val="130000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="accent5">
+            <a:shade val="94000"/>
+            <a:satMod val="135000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:lin ang="16200000" scaled="0"/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="accent5">
+          <a:shade val="95000"/>
+          <a:satMod val="105000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+    </a:ln>
+    <a:effectLst>
+      <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+        <a:srgbClr val="000000">
+          <a:alpha val="35000"/>
+        </a:srgbClr>
+      </a:outerShdw>
+    </a:effectLst>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -523,16 +857,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9" t="s">
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -747,16 +1081,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9" t="s">
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -766,22 +1100,22 @@
         <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>2</v>
+        <v>20</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>2</v>
+        <v>20</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>18</v>
@@ -1044,5 +1378,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>